--- a/00. 설계/Table 설계.xlsx
+++ b/00. 설계/Table 설계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmhc6\OneDrive\바탕 화면\일\MES\00. 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221B5C9-5193-4DBE-8BE6-A0886F7141A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932978FF-851C-4AE8-8594-4C0FD0B66F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28770" yWindow="13695" windowWidth="16080" windowHeight="14370" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="169">
   <si>
     <t>지시수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -710,6 +710,9 @@
   <si>
     <t>깊이 제한 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderNo</t>
   </si>
 </sst>
 </file>
@@ -1199,12 +1202,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1213,57 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,7 +1585,7 @@
   <dimension ref="B1:H189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1597,28 +1600,28 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="21"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
@@ -1650,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>14</v>
@@ -1917,14 +1920,14 @@
       <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E20" s="20"/>
@@ -1933,28 +1936,28 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="21"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
@@ -2247,39 +2250,39 @@
       <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="21"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="39"/>
+      <c r="D43" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
     </row>
@@ -2594,14 +2597,14 @@
       <c r="B60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E61" s="23"/>
@@ -2612,28 +2615,28 @@
       <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="40" t="s">
+      <c r="C63" s="27"/>
+      <c r="D63" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="21"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="43" t="s">
+      <c r="C64" s="30"/>
+      <c r="D64" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
     </row>
@@ -2973,14 +2976,14 @@
       <c r="B82" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="37"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E83" s="20"/>
@@ -2989,28 +2992,28 @@
       <c r="E84" s="20"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="40" t="s">
+      <c r="C85" s="27"/>
+      <c r="D85" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
       <c r="G85" s="21"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="42"/>
-      <c r="D86" s="43" t="s">
+      <c r="C86" s="30"/>
+      <c r="D86" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
     </row>
@@ -3329,14 +3332,14 @@
       <c r="B103" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="44" t="s">
+      <c r="C103" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="34"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E104" s="22"/>
@@ -3344,28 +3347,28 @@
     </row>
     <row r="105" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="40" t="s">
+      <c r="C106" s="27"/>
+      <c r="D106" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
       <c r="G106" s="21"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="42"/>
-      <c r="D107" s="43" t="s">
+      <c r="C107" s="30"/>
+      <c r="D107" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
       <c r="G107" s="7"/>
       <c r="H107" s="8"/>
     </row>
@@ -3690,39 +3693,39 @@
       <c r="B125" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="44" t="s">
+      <c r="C125" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="37"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="34"/>
     </row>
     <row r="127" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C128" s="39"/>
-      <c r="D128" s="40" t="s">
+      <c r="C128" s="27"/>
+      <c r="D128" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E128" s="40"/>
-      <c r="F128" s="40"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
       <c r="G128" s="21"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43" t="s">
+      <c r="C129" s="30"/>
+      <c r="D129" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
       <c r="G129" s="7"/>
       <c r="H129" s="8"/>
     </row>
@@ -4142,37 +4145,37 @@
       <c r="B152" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="37"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="34"/>
     </row>
     <row r="154" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C155" s="39"/>
-      <c r="D155" s="40" t="s">
+      <c r="C155" s="27"/>
+      <c r="D155" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E155" s="40"/>
-      <c r="F155" s="40"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
       <c r="G155" s="21"/>
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="41" t="s">
+      <c r="B156" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C156" s="42"/>
-      <c r="D156" s="43" t="s">
+      <c r="C156" s="30"/>
+      <c r="D156" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E156" s="43"/>
-      <c r="F156" s="43"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
       <c r="G156" s="7"/>
       <c r="H156" s="8"/>
     </row>
@@ -4440,39 +4443,39 @@
       <c r="B171" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C171" s="36" t="s">
+      <c r="C171" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="37"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="34"/>
     </row>
     <row r="173" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="174" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C174" s="39"/>
-      <c r="D174" s="40" t="s">
+      <c r="C174" s="27"/>
+      <c r="D174" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E174" s="40"/>
-      <c r="F174" s="40"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
       <c r="G174" s="21"/>
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="41" t="s">
+      <c r="B175" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C175" s="42"/>
-      <c r="D175" s="43" t="s">
+      <c r="C175" s="30"/>
+      <c r="D175" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E175" s="43"/>
-      <c r="F175" s="43"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
       <c r="G175" s="7"/>
       <c r="H175" s="8"/>
     </row>
@@ -4721,22 +4724,47 @@
       <c r="B189" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="44" t="s">
+      <c r="C189" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D189" s="36"/>
-      <c r="E189" s="36"/>
-      <c r="F189" s="36"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="37"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="C125:H125"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -4747,36 +4775,11 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="C171:H171"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="C82:H82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00. 설계/Table 설계.xlsx
+++ b/00. 설계/Table 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932978FF-851C-4AE8-8594-4C0FD0B66F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D717693-A49F-4575-8587-EDB295F9C9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="13695" windowWidth="16080" windowHeight="14370" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="178">
   <si>
     <t>지시수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,11 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10 : 생산품,    20 : 원자재,    30 : 부자재,
-40 : 소모자재, 50 : 개발TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공정 생산품일경우 공정 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,11 +703,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>깊이 제한 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OrderNo</t>
+  </si>
+  <si>
+    <t>깊이 제한 필요or 특정 level 이하만 작성가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 : 완제품,    20 : 반제품,    30 : 원자재,
+40 : 부자재,    50 : 소모자재, 60 : 개발TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC + 자재타입(16진수) + 순번 0000N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info_CategoryGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI + 상위코드 + 16진수 순서(2자리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Level 초과 방지필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합코드 구분을 위한 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1202,6 +1238,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,12 +1295,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1237,36 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D18479-4FC6-49A3-AAC7-5696D0E9C401}">
-  <dimension ref="B1:H189"/>
+  <dimension ref="B1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1600,28 +1636,28 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="21"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
@@ -1653,13 +1689,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>17</v>
@@ -1680,16 +1716,16 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1703,13 +1739,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
@@ -1726,14 +1762,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1747,14 +1783,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1768,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -1787,14 +1823,14 @@
         <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1808,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1829,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1848,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -1867,7 +1903,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -1888,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -1907,7 +1943,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1920,14 +1956,14 @@
       <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="C19" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E20" s="20"/>
@@ -1936,28 +1972,28 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="21"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
@@ -1989,20 +2025,20 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2010,10 +2046,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
@@ -2035,13 +2071,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2056,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -2069,20 +2105,20 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2096,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -2115,14 +2151,14 @@
         <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -2136,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -2157,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -2176,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -2195,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -2216,7 +2252,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -2235,7 +2271,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>16</v>
@@ -2250,39 +2286,39 @@
       <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
+      <c r="C39" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="21"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
     </row>
@@ -2317,10 +2353,10 @@
         <v>22</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>17</v>
@@ -2335,20 +2371,20 @@
         <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
@@ -2356,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>48</v>
@@ -2381,13 +2417,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -2402,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -2418,10 +2454,10 @@
         <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -2442,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
@@ -2461,14 +2497,14 @@
         <v>44</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -2482,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>16</v>
@@ -2503,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>16</v>
@@ -2522,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>16</v>
@@ -2541,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>16</v>
@@ -2562,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>16</v>
@@ -2581,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>16</v>
@@ -2597,14 +2633,14 @@
       <c r="B60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
+      <c r="C60" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E61" s="23"/>
@@ -2615,28 +2651,28 @@
       <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="21"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
     </row>
@@ -2674,7 +2710,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>17</v>
@@ -2689,20 +2725,20 @@
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
@@ -2710,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>48</v>
@@ -2723,7 +2759,7 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -2737,13 +2773,13 @@
         <v>40</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -2758,14 +2794,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
@@ -2776,10 +2812,10 @@
         <v>56</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -2794,20 +2830,20 @@
         <v>7</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
@@ -2821,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -2837,17 +2873,17 @@
         <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -2861,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -2882,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -2901,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>16</v>
@@ -2920,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>16</v>
@@ -2941,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
@@ -2960,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>16</v>
@@ -2976,14 +3012,14 @@
       <c r="B82" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34"/>
+      <c r="C82" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E83" s="20"/>
@@ -2992,28 +3028,28 @@
       <c r="E84" s="20"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="21"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
     </row>
@@ -3045,22 +3081,22 @@
         <v>1</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
@@ -3093,16 +3129,16 @@
         <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
@@ -3116,13 +3152,13 @@
         <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -3137,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>16</v>
@@ -3150,20 +3186,20 @@
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
@@ -3177,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>16</v>
@@ -3196,14 +3232,14 @@
         <v>44</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
@@ -3217,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -3238,7 +3274,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
@@ -3257,7 +3293,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -3276,7 +3312,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -3297,7 +3333,7 @@
         <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>16</v>
@@ -3316,7 +3352,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>16</v>
@@ -3332,14 +3368,14 @@
       <c r="B103" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="34"/>
+      <c r="C103" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E104" s="22"/>
@@ -3347,28 +3383,28 @@
     </row>
     <row r="105" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
       <c r="G106" s="21"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
       <c r="G107" s="7"/>
       <c r="H107" s="8"/>
     </row>
@@ -3400,13 +3436,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>17</v>
@@ -3414,20 +3450,22 @@
       <c r="G109" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="12"/>
+      <c r="H109" s="12" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="9">
         <v>2</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>16</v>
@@ -3438,13 +3476,13 @@
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>16</v>
@@ -3457,10 +3495,10 @@
         <v>3</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>48</v>
@@ -3470,7 +3508,7 @@
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="17" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
@@ -3478,13 +3516,13 @@
         <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>16</v>
@@ -3500,10 +3538,10 @@
         <v>50</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>16</v>
@@ -3522,14 +3560,14 @@
         <v>51</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
@@ -3543,7 +3581,7 @@
         <v>69</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3562,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3581,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>16</v>
@@ -3602,7 +3640,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3621,7 +3659,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3640,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3661,7 +3699,7 @@
         <v>7</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3680,7 +3718,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>16</v>
@@ -3693,39 +3731,39 @@
       <c r="B125" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="34"/>
+      <c r="C125" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="37"/>
     </row>
     <row r="127" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="40"/>
+      <c r="F128" s="40"/>
       <c r="G128" s="21"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="29" t="s">
+      <c r="B129" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C129" s="30"/>
-      <c r="D129" s="31" t="s">
+      <c r="C129" s="42"/>
+      <c r="D129" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
       <c r="G129" s="7"/>
       <c r="H129" s="8"/>
     </row>
@@ -3763,7 +3801,7 @@
         <v>51</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>17</v>
@@ -3784,7 +3822,7 @@
         <v>57</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>16</v>
@@ -3824,7 +3862,7 @@
         <v>60</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>16</v>
@@ -3843,7 +3881,7 @@
         <v>61</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>16</v>
@@ -3862,7 +3900,7 @@
         <v>62</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>16</v>
@@ -3881,7 +3919,7 @@
         <v>63</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>16</v>
@@ -3900,7 +3938,7 @@
         <v>64</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>16</v>
@@ -3919,7 +3957,7 @@
         <v>65</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3938,7 +3976,7 @@
         <v>66</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>16</v>
@@ -3957,7 +3995,7 @@
         <v>67</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -3976,7 +4014,7 @@
         <v>68</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -3995,7 +4033,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -4014,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -4033,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -4054,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>16</v>
@@ -4073,7 +4111,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>16</v>
@@ -4092,7 +4130,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>16</v>
@@ -4113,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>16</v>
@@ -4132,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>16</v>
@@ -4145,37 +4183,37 @@
       <c r="B152" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="34"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="37"/>
     </row>
     <row r="154" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B155" s="26" t="s">
+      <c r="B155" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C155" s="27"/>
-      <c r="D155" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E155" s="40"/>
+      <c r="F155" s="40"/>
       <c r="G155" s="21"/>
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="29" t="s">
+      <c r="B156" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C156" s="30"/>
-      <c r="D156" s="31" t="s">
+      <c r="C156" s="42"/>
+      <c r="D156" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E156" s="31"/>
-      <c r="F156" s="31"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
       <c r="G156" s="7"/>
       <c r="H156" s="8"/>
     </row>
@@ -4207,13 +4245,13 @@
         <v>1</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>17</v>
@@ -4221,7 +4259,9 @@
       <c r="G158" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H158" s="12"/>
+      <c r="H158" s="12" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="9">
@@ -4234,14 +4274,14 @@
         <v>86</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
@@ -4255,7 +4295,7 @@
         <v>84</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4268,13 +4308,13 @@
         <v>4</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4286,14 +4326,14 @@
       <c r="B162" s="9">
         <v>5</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>12</v>
+      <c r="C162" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -4305,51 +4345,51 @@
       <c r="B163" s="9">
         <v>6</v>
       </c>
-      <c r="C163" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D163" s="18" t="s">
-        <v>69</v>
+      <c r="C163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G163" s="2"/>
-      <c r="H163" s="4"/>
+      <c r="H163" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" s="9">
         <v>7</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G164" s="2"/>
-      <c r="H164" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="H164" s="4"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" s="9">
         <v>8</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>106</v>
@@ -4365,207 +4405,210 @@
         <v>9</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G166" s="2"/>
-      <c r="H166" s="4"/>
+      <c r="H166" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" s="9">
         <v>10</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G167" s="2"/>
-      <c r="H167" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="9">
         <v>11</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168" s="2" t="s">
+      <c r="C168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" s="2"/>
-      <c r="H168" s="4"/>
-    </row>
-    <row r="169" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="9">
+      <c r="F168" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="7"/>
+      <c r="H168" s="8"/>
+    </row>
+    <row r="169" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" s="7"/>
-      <c r="H169" s="8"/>
-    </row>
-    <row r="170" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="171" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="13" t="s">
+      <c r="C170" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="37"/>
+    </row>
+    <row r="172" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E172" s="23"/>
+      <c r="G172" s="23"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" s="39"/>
+      <c r="D173" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E173" s="40"/>
+      <c r="F173" s="40"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" s="42"/>
+      <c r="D174" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="8"/>
+    </row>
+    <row r="175" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B175" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C171" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="34"/>
-    </row>
-    <row r="173" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B174" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C174" s="27"/>
-      <c r="D174" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C175" s="30"/>
-      <c r="D175" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E175" s="31"/>
-      <c r="F175" s="31"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="8"/>
-    </row>
-    <row r="176" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F176" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" s="16" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B176" s="9">
+        <v>1</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" s="12"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H177" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" s="10"/>
+      <c r="H177" s="12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G178" s="10"/>
-      <c r="H178" s="12"/>
+      <c r="H178" s="17"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="9">
-        <v>3</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G179" s="10"/>
-      <c r="H179" s="17" t="s">
-        <v>92</v>
-      </c>
+      <c r="H179" s="17"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>49</v>
@@ -4574,7 +4617,7 @@
         <v>12</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>16</v>
@@ -4584,7 +4627,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" s="18" t="s">
         <v>79</v>
@@ -4593,7 +4636,7 @@
         <v>69</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>16</v>
@@ -4603,7 +4646,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>31</v>
@@ -4612,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
@@ -4624,7 +4667,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>32</v>
@@ -4633,7 +4676,7 @@
         <v>4</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>16</v>
@@ -4643,7 +4686,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>33</v>
@@ -4652,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>16</v>
@@ -4662,7 +4705,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>34</v>
@@ -4671,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>16</v>
@@ -4683,7 +4726,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>35</v>
@@ -4692,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>16</v>
@@ -4702,7 +4745,7 @@
     </row>
     <row r="187" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B187" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>36</v>
@@ -4711,7 +4754,7 @@
         <v>8</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>16</v>
@@ -4719,52 +4762,323 @@
       <c r="G187" s="7"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="188" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E188" s="23"/>
+      <c r="G188" s="23"/>
+    </row>
     <row r="189" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B189" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="32" t="s">
+      <c r="C189" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" s="36"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="36"/>
+      <c r="H189" s="37"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E190" s="23"/>
+      <c r="G190" s="23"/>
+    </row>
+    <row r="191" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E191" s="23"/>
+      <c r="G191" s="23"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B192" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192" s="27"/>
+      <c r="D192" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E192" s="29"/>
+      <c r="F192" s="30"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C193" s="32"/>
+      <c r="D193" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E193" s="34"/>
+      <c r="F193" s="35"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="8"/>
+    </row>
+    <row r="194" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B194" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F194" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B195" s="9">
+        <v>1</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" s="12"/>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B196" s="9">
+        <v>2</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="12"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B197" s="9">
+        <v>3</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B198" s="9">
+        <v>4</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B199" s="9">
+        <v>5</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G199" s="2"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B200" s="9">
+        <v>6</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" s="2"/>
+      <c r="H200" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B201" s="9">
+        <v>7</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B202" s="9">
+        <v>8</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" s="2"/>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B203" s="9">
+        <v>9</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="2"/>
+      <c r="H203" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B204" s="9">
+        <v>10</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" s="2"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B205" s="9">
+        <v>11</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G205" s="7"/>
+      <c r="H205" s="8"/>
+    </row>
+    <row r="206" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="207" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B207" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="34"/>
+      <c r="D207" s="36"/>
+      <c r="E207" s="36"/>
+      <c r="F207" s="36"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="C103:H103"/>
+  <mergeCells count="50">
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:F173"/>
     <mergeCell ref="B174:C174"/>
     <mergeCell ref="D174:F174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="C171:H171"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="C82:H82"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -4775,11 +5089,36 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="C207:H207"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="C60:H60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00. 설계/Table 설계.xlsx
+++ b/00. 설계/Table 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D717693-A49F-4575-8587-EDB295F9C9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1A515-7CF2-49AC-953D-B33611AD5102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
+    <workbookView xWindow="28920" yWindow="2955" windowWidth="16080" windowHeight="14370" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="180">
   <si>
     <t>지시수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,35 +355,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종합코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CateCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HighCate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위 카테고리코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>깊이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CateValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,15 +686,6 @@
     <t>OrderNo</t>
   </si>
   <si>
-    <t>깊이 제한 필요or 특정 level 이하만 작성가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 : 완제품,    20 : 반제품,    30 : 원자재,
-40 : 부자재,    50 : 소모자재, 60 : 개발TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MC + 자재타입(16진수) + 순번 0000N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,14 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CI + 상위코드 + 16진수 순서(2자리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3Level 초과 방지필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그룹 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,6 +711,49 @@
   </si>
   <si>
     <t>종합코드 구분을 위한 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합코드 - 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합코드 - 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 그룹코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI + 16진수 순서(2자리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
+  <si>
+    <t>ItemValue</t>
+  </si>
+  <si>
+    <t>01 : 완제품,    02 : 반제품,    03 : 원자재,
+04 : 부자재,    05 : 소모자재, 06 : 개발TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG + 상위코드 + 16진수 순서(3자리), 최상위는 2자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Level 이상 방지필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,36 +1244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1303,6 +1279,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D18479-4FC6-49A3-AAC7-5696D0E9C401}">
-  <dimension ref="B1:H207"/>
+  <dimension ref="B1:H206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1631,33 +1637,33 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="20"/>
-    <col min="8" max="8" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="21"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
@@ -1689,13 +1695,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>17</v>
@@ -1716,16 +1722,16 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1739,13 +1745,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
@@ -1762,14 +1768,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1783,14 +1789,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1804,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -1823,14 +1829,14 @@
         <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1844,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1865,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1884,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -1903,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -1924,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -1943,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1956,14 +1962,14 @@
       <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="C19" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E20" s="20"/>
@@ -1972,28 +1978,28 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="21"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
@@ -2025,20 +2031,20 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2046,10 +2052,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
@@ -2071,13 +2077,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2092,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -2105,20 +2111,20 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2132,7 +2138,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -2151,14 +2157,14 @@
         <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -2172,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -2193,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -2212,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -2231,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -2252,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -2271,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>16</v>
@@ -2286,39 +2292,39 @@
       <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
+      <c r="C39" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="21"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
     </row>
@@ -2353,10 +2359,10 @@
         <v>22</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>17</v>
@@ -2371,20 +2377,20 @@
         <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
@@ -2392,10 +2398,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>48</v>
@@ -2417,13 +2423,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -2438,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -2454,10 +2460,10 @@
         <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -2478,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
@@ -2497,14 +2503,14 @@
         <v>44</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -2518,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>16</v>
@@ -2539,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>16</v>
@@ -2558,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>16</v>
@@ -2577,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>16</v>
@@ -2598,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>16</v>
@@ -2617,7 +2623,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>16</v>
@@ -2633,14 +2639,14 @@
       <c r="B60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
+      <c r="C60" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E61" s="23"/>
@@ -2651,28 +2657,28 @@
       <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="21"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
     </row>
@@ -2710,7 +2716,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>17</v>
@@ -2725,20 +2731,20 @@
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
@@ -2746,10 +2752,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>48</v>
@@ -2759,7 +2765,7 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -2773,13 +2779,13 @@
         <v>40</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -2794,14 +2800,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
@@ -2812,10 +2818,10 @@
         <v>56</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -2830,20 +2836,20 @@
         <v>7</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
@@ -2857,7 +2863,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -2873,17 +2879,17 @@
         <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -2897,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -2918,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -2937,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>16</v>
@@ -2956,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>16</v>
@@ -2977,7 +2983,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
@@ -2996,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>16</v>
@@ -3012,14 +3018,14 @@
       <c r="B82" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="37"/>
+      <c r="C82" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E83" s="20"/>
@@ -3028,28 +3034,28 @@
       <c r="E84" s="20"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
       <c r="G85" s="21"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="42"/>
-      <c r="D86" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
     </row>
@@ -3081,22 +3087,22 @@
         <v>1</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
@@ -3129,16 +3135,16 @@
         <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
@@ -3152,13 +3158,13 @@
         <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -3173,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>16</v>
@@ -3186,20 +3192,20 @@
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
@@ -3213,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>16</v>
@@ -3232,14 +3238,14 @@
         <v>44</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
@@ -3253,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -3274,7 +3280,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
@@ -3293,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -3312,7 +3318,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -3333,7 +3339,7 @@
         <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>16</v>
@@ -3352,7 +3358,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>16</v>
@@ -3368,14 +3374,14 @@
       <c r="B103" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
+      <c r="C103" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="27"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E104" s="22"/>
@@ -3383,28 +3389,28 @@
     </row>
     <row r="105" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
       <c r="G106" s="21"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="42"/>
-      <c r="D107" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
       <c r="G107" s="7"/>
       <c r="H107" s="8"/>
     </row>
@@ -3436,13 +3442,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>17</v>
@@ -3451,7 +3457,7 @@
         <v>18</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
@@ -3459,13 +3465,13 @@
         <v>2</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>16</v>
@@ -3476,13 +3482,13 @@
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>16</v>
@@ -3495,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>48</v>
@@ -3508,7 +3514,7 @@
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="17" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
@@ -3516,13 +3522,13 @@
         <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>16</v>
@@ -3538,10 +3544,10 @@
         <v>50</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>16</v>
@@ -3560,14 +3566,14 @@
         <v>51</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
@@ -3581,7 +3587,7 @@
         <v>69</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3600,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3619,7 +3625,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>16</v>
@@ -3640,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3659,7 +3665,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3678,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3699,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3718,7 +3724,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>16</v>
@@ -3731,39 +3737,39 @@
       <c r="B125" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="37"/>
+      <c r="C125" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="27"/>
     </row>
     <row r="127" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C128" s="39"/>
-      <c r="D128" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E128" s="40"/>
-      <c r="F128" s="40"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
       <c r="G128" s="21"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43" t="s">
+      <c r="C129" s="32"/>
+      <c r="D129" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
       <c r="G129" s="7"/>
       <c r="H129" s="8"/>
     </row>
@@ -3801,7 +3807,7 @@
         <v>51</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>17</v>
@@ -3822,7 +3828,7 @@
         <v>57</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>16</v>
@@ -3848,7 +3854,7 @@
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
@@ -3862,7 +3868,7 @@
         <v>60</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>16</v>
@@ -3881,7 +3887,7 @@
         <v>61</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>16</v>
@@ -3900,7 +3906,7 @@
         <v>62</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>16</v>
@@ -3919,7 +3925,7 @@
         <v>63</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>16</v>
@@ -3938,7 +3944,7 @@
         <v>64</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>16</v>
@@ -3957,7 +3963,7 @@
         <v>65</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3976,7 +3982,7 @@
         <v>66</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>16</v>
@@ -3995,7 +4001,7 @@
         <v>67</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -4014,7 +4020,7 @@
         <v>68</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -4033,7 +4039,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -4052,7 +4058,7 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -4071,7 +4077,7 @@
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -4092,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>16</v>
@@ -4111,7 +4117,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>16</v>
@@ -4130,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>16</v>
@@ -4151,7 +4157,7 @@
         <v>7</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>16</v>
@@ -4170,7 +4176,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>16</v>
@@ -4183,37 +4189,37 @@
       <c r="B152" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="37"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="27"/>
     </row>
     <row r="154" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C155" s="39"/>
-      <c r="D155" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="E155" s="40"/>
-      <c r="F155" s="40"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
       <c r="G155" s="21"/>
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="41" t="s">
+      <c r="B156" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C156" s="42"/>
-      <c r="D156" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E156" s="43"/>
-      <c r="F156" s="43"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
       <c r="G156" s="7"/>
       <c r="H156" s="8"/>
     </row>
@@ -4245,13 +4251,13 @@
         <v>1</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>17</v>
@@ -4260,7 +4266,7 @@
         <v>18</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
@@ -4268,20 +4274,20 @@
         <v>2</v>
       </c>
       <c r="C159" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D159" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="E159" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
@@ -4289,13 +4295,13 @@
         <v>3</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4308,13 +4314,13 @@
         <v>4</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4333,7 +4339,7 @@
         <v>69</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -4352,7 +4358,7 @@
         <v>3</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
@@ -4373,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
@@ -4392,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>16</v>
@@ -4411,7 +4417,7 @@
         <v>6</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>16</v>
@@ -4432,7 +4438,7 @@
         <v>7</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>16</v>
@@ -4451,7 +4457,7 @@
         <v>8</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>16</v>
@@ -4464,42 +4470,42 @@
       <c r="B170" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C170" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="37"/>
+      <c r="C170" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="27"/>
     </row>
     <row r="172" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E172" s="23"/>
       <c r="G172" s="23"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C173" s="39"/>
-      <c r="D173" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E173" s="40"/>
-      <c r="F173" s="40"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
       <c r="G173" s="21"/>
       <c r="H173" s="3"/>
     </row>
     <row r="174" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="41" t="s">
+      <c r="B174" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C174" s="42"/>
-      <c r="D174" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E174" s="43"/>
-      <c r="F174" s="43"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
       <c r="G174" s="7"/>
       <c r="H174" s="8"/>
     </row>
@@ -4531,20 +4537,18 @@
         <v>1</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F176" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G176" s="10"/>
       <c r="H176" s="12"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.3">
@@ -4552,34 +4556,34 @@
         <v>2</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>102</v>
+        <v>175</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G177" s="10"/>
       <c r="H177" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="9">
         <v>3</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D178" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>16</v>
@@ -4591,33 +4595,33 @@
       <c r="B179" s="9">
         <v>4</v>
       </c>
-      <c r="C179" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>88</v>
+      <c r="C179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G179" s="10"/>
-      <c r="H179" s="17"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="4"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="9">
         <v>5</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>12</v>
+      <c r="C180" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>16</v>
@@ -4629,54 +4633,54 @@
       <c r="B181" s="9">
         <v>6</v>
       </c>
-      <c r="C181" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>69</v>
+      <c r="C181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G181" s="2"/>
-      <c r="H181" s="4"/>
+      <c r="H181" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="9">
         <v>7</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G182" s="2"/>
-      <c r="H182" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="H182" s="4"/>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="9">
         <v>8</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>16</v>
@@ -4689,226 +4693,226 @@
         <v>9</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G184" s="2"/>
-      <c r="H184" s="4"/>
+      <c r="H184" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="9">
         <v>10</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G185" s="2"/>
-      <c r="H185" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B186" s="9">
         <v>11</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" s="2"/>
-      <c r="H186" s="4"/>
+      <c r="C186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" s="7"/>
+      <c r="H186" s="8"/>
     </row>
     <row r="187" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="9">
+      <c r="E187" s="23"/>
+      <c r="G187" s="23"/>
+    </row>
+    <row r="188" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="8"/>
-    </row>
-    <row r="188" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E188" s="23"/>
-      <c r="G188" s="23"/>
-    </row>
-    <row r="189" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D189" s="36"/>
-      <c r="E189" s="36"/>
-      <c r="F189" s="36"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="37"/>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C188" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="27"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E189" s="23"/>
+      <c r="G189" s="23"/>
+    </row>
+    <row r="190" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E190" s="23"/>
       <c r="G190" s="23"/>
     </row>
-    <row r="191" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E191" s="23"/>
-      <c r="G191" s="23"/>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B192" s="26" t="s">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B191" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C192" s="27"/>
-      <c r="D192" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E192" s="29"/>
-      <c r="F192" s="30"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="3"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E191" s="46"/>
+      <c r="F191" s="47"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C192" s="39"/>
+      <c r="D192" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E192" s="43"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="8"/>
     </row>
     <row r="193" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C193" s="32"/>
-      <c r="D193" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E193" s="34"/>
-      <c r="F193" s="35"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="8"/>
-    </row>
-    <row r="194" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="14" t="s">
+      <c r="B193" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C194" s="15" t="s">
+      <c r="C193" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D194" s="15" t="s">
+      <c r="D193" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E194" s="15" t="s">
+      <c r="E193" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F194" s="15" t="s">
+      <c r="F193" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G194" s="15" t="s">
+      <c r="G193" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H194" s="16" t="s">
+      <c r="H193" s="16" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B194" s="9">
+        <v>1</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" s="12"/>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F195" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G195" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" s="10"/>
       <c r="H195" s="12"/>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>93</v>
+        <v>124</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G196" s="10"/>
-      <c r="H196" s="12"/>
+      <c r="H196" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B197" s="9">
-        <v>3</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>129</v>
+        <v>4</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G197" s="10"/>
-      <c r="H197" s="17" t="s">
-        <v>92</v>
-      </c>
+      <c r="G197" s="2"/>
+      <c r="H197" s="4"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B198" s="9">
-        <v>4</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>16</v>
@@ -4918,56 +4922,56 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B199" s="9">
-        <v>5</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D199" s="18" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G199" s="2"/>
-      <c r="H199" s="4"/>
+      <c r="H199" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G200" s="2"/>
-      <c r="H200" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="H200" s="4"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B201" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>16</v>
@@ -4977,108 +4981,109 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B202" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G202" s="2"/>
-      <c r="H202" s="4"/>
+      <c r="H202" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B203" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G203" s="2"/>
-      <c r="H203" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B204" s="9">
-        <v>10</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G204" s="2"/>
-      <c r="H204" s="4"/>
-    </row>
-    <row r="205" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="9">
         <v>11</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C204" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D204" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E205" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G205" s="7"/>
-      <c r="H205" s="8"/>
-    </row>
-    <row r="206" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="207" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="13" t="s">
+      <c r="E204" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" s="7"/>
+      <c r="H204" s="8"/>
+    </row>
+    <row r="205" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B206" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C207" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D207" s="36"/>
-      <c r="E207" s="36"/>
-      <c r="F207" s="36"/>
-      <c r="G207" s="36"/>
-      <c r="H207" s="37"/>
+      <c r="C206" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="C206:H206"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="C125:H125"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -5089,36 +5094,16 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="C207:H207"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C188:H188"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:F174"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00. 설계/Table 설계.xlsx
+++ b/00. 설계/Table 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1A515-7CF2-49AC-953D-B33611AD5102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10B9F86-A530-4E1E-969A-E2198025B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="2955" windowWidth="16080" windowHeight="14370" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
+    <workbookView xWindow="28920" yWindow="13155" windowWidth="16080" windowHeight="14370" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="183">
   <si>
     <t>지시수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UseYn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,11 +360,6 @@
   </si>
   <si>
     <t>카테고리 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 : 매입거래처, 20 : 매출거래처,
-30 : 외주거래처, 40 : 배송거래처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -405,11 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단가 관리는 Table 신규 생성해서 하기
-공정내부 생산품 타입은 생산품으로 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaterialSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,10 +513,6 @@
   </si>
   <si>
     <t>ProcessType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialAlias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -686,10 +660,6 @@
     <t>OrderNo</t>
   </si>
   <si>
-    <t>MC + 자재타입(16진수) + 순번 0000N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Info_CategoryGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,10 +701,6 @@
   </si>
   <si>
     <t>CI + 16진수 순서(2자리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -754,6 +720,51 @@
   </si>
   <si>
     <t>3Level 이상 방지필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 : 매입거래처, 02 : 매출거래처
+03 : 외주거래처, 04 : 배송거래처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU + 16진수 3자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC + 16진수 6자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가 관리는 Table 신규 생성해서 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,6 +1255,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1279,36 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D18479-4FC6-49A3-AAC7-5696D0E9C401}">
-  <dimension ref="B1:H206"/>
+  <dimension ref="B1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H160" sqref="H160"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125:H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1642,28 +1653,28 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="21"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
@@ -1695,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>17</v>
@@ -1722,16 +1733,16 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1745,13 +1756,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
@@ -1768,14 +1779,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1789,14 +1800,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1810,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -1829,14 +1840,14 @@
         <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1850,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1871,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1890,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -1909,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -1930,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -1949,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1962,14 +1973,14 @@
       <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="C19" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E20" s="20"/>
@@ -1978,28 +1989,28 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="21"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
@@ -2031,20 +2042,20 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2052,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
@@ -2077,13 +2088,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2098,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -2111,20 +2122,20 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2138,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -2157,14 +2168,14 @@
         <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -2178,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -2199,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -2218,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -2237,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -2258,7 +2269,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -2277,7 +2288,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>16</v>
@@ -2292,39 +2303,39 @@
       <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="C39" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="21"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
     </row>
@@ -2359,10 +2370,10 @@
         <v>22</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>17</v>
@@ -2377,20 +2388,20 @@
         <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
@@ -2398,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>48</v>
@@ -2423,13 +2434,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -2444,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -2460,10 +2471,10 @@
         <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -2484,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
@@ -2503,14 +2514,14 @@
         <v>44</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -2524,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>16</v>
@@ -2545,7 +2556,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>16</v>
@@ -2564,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>16</v>
@@ -2583,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>16</v>
@@ -2604,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>16</v>
@@ -2623,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>16</v>
@@ -2639,14 +2650,14 @@
       <c r="B60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
+      <c r="C60" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E61" s="23"/>
@@ -2657,28 +2668,28 @@
       <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="21"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
     </row>
@@ -2716,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>17</v>
@@ -2731,20 +2742,20 @@
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
@@ -2752,10 +2763,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>48</v>
@@ -2765,7 +2776,7 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -2779,13 +2790,13 @@
         <v>40</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -2800,14 +2811,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
@@ -2818,10 +2829,10 @@
         <v>56</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -2836,20 +2847,20 @@
         <v>7</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
@@ -2863,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -2879,17 +2890,17 @@
         <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -2903,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -2924,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -2943,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>16</v>
@@ -2962,7 +2973,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>16</v>
@@ -2983,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
@@ -3002,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>16</v>
@@ -3018,14 +3029,14 @@
       <c r="B82" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
+      <c r="C82" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E83" s="20"/>
@@ -3034,28 +3045,28 @@
       <c r="E84" s="20"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="21"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
     </row>
@@ -3087,22 +3098,22 @@
         <v>1</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
@@ -3135,16 +3146,16 @@
         <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
@@ -3158,13 +3169,13 @@
         <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -3179,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>16</v>
@@ -3192,20 +3203,20 @@
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
@@ -3219,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>16</v>
@@ -3238,14 +3249,14 @@
         <v>44</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
@@ -3259,7 +3270,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -3280,7 +3291,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
@@ -3299,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -3318,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -3339,7 +3350,7 @@
         <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>16</v>
@@ -3358,7 +3369,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>16</v>
@@ -3374,14 +3385,14 @@
       <c r="B103" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="27"/>
+      <c r="C103" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E104" s="22"/>
@@ -3389,28 +3400,28 @@
     </row>
     <row r="105" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
       <c r="G106" s="21"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
       <c r="G107" s="7"/>
       <c r="H107" s="8"/>
     </row>
@@ -3442,13 +3453,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>17</v>
@@ -3457,7 +3468,7 @@
         <v>18</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
@@ -3465,13 +3476,13 @@
         <v>2</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>16</v>
@@ -3479,56 +3490,58 @@
       <c r="G110" s="10"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B111" s="9"/>
+    <row r="111" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B111" s="9">
+        <v>3</v>
+      </c>
       <c r="C111" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>157</v>
+        <v>102</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="10"/>
-      <c r="H111" s="12"/>
-    </row>
-    <row r="112" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H111" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="10"/>
-      <c r="H112" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>16</v>
@@ -3538,16 +3551,16 @@
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>16</v>
@@ -3557,7 +3570,7 @@
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>46</v>
@@ -3566,28 +3579,28 @@
         <v>51</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3597,7 +3610,7 @@
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>49</v>
@@ -3606,7 +3619,7 @@
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3616,7 +3629,7 @@
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>31</v>
@@ -3625,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>16</v>
@@ -3637,7 +3650,7 @@
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>32</v>
@@ -3646,7 +3659,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3656,7 +3669,7 @@
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>33</v>
@@ -3665,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3675,7 +3688,7 @@
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>34</v>
@@ -3684,7 +3697,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3696,7 +3709,7 @@
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>35</v>
@@ -3705,7 +3718,7 @@
         <v>7</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3715,7 +3728,7 @@
     </row>
     <row r="123" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B123" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>36</v>
@@ -3724,7 +3737,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>16</v>
@@ -3737,39 +3750,39 @@
       <c r="B125" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="27"/>
+      <c r="C125" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="37"/>
     </row>
     <row r="127" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="128" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="28" t="s">
+      <c r="B128" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C128" s="29"/>
-      <c r="D128" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="40"/>
+      <c r="F128" s="40"/>
       <c r="G128" s="21"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C129" s="32"/>
-      <c r="D129" s="33" t="s">
+      <c r="C129" s="42"/>
+      <c r="D129" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
       <c r="G129" s="7"/>
       <c r="H129" s="8"/>
     </row>
@@ -3807,7 +3820,7 @@
         <v>51</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>17</v>
@@ -3815,7 +3828,9 @@
       <c r="G131" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="12"/>
+      <c r="H131" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" s="9">
@@ -3828,7 +3843,7 @@
         <v>57</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>16</v>
@@ -3847,14 +3862,14 @@
         <v>58</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="17" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
@@ -3868,7 +3883,7 @@
         <v>60</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>16</v>
@@ -3887,7 +3902,7 @@
         <v>61</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>16</v>
@@ -3906,7 +3921,7 @@
         <v>62</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>16</v>
@@ -3925,7 +3940,7 @@
         <v>63</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>16</v>
@@ -3938,13 +3953,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>16</v>
@@ -3957,13 +3972,13 @@
         <v>9</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D139" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3976,13 +3991,13 @@
         <v>10</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>66</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>16</v>
@@ -3995,13 +4010,13 @@
         <v>11</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -4014,13 +4029,13 @@
         <v>12</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -4033,13 +4048,13 @@
         <v>13</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -4058,7 +4073,7 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -4077,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -4098,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>16</v>
@@ -4117,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>16</v>
@@ -4136,7 +4151,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>16</v>
@@ -4157,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>16</v>
@@ -4176,7 +4191,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>16</v>
@@ -4189,37 +4204,37 @@
       <c r="B152" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="27"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="37"/>
     </row>
     <row r="154" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B155" s="28" t="s">
+      <c r="B155" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C155" s="29"/>
-      <c r="D155" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" s="40"/>
+      <c r="F155" s="40"/>
       <c r="G155" s="21"/>
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
       <c r="G156" s="7"/>
       <c r="H156" s="8"/>
     </row>
@@ -4251,13 +4266,13 @@
         <v>1</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>17</v>
@@ -4266,61 +4281,61 @@
         <v>18</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="9">
         <v>2</v>
       </c>
-      <c r="C159" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>97</v>
+      <c r="C159" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="10"/>
-      <c r="H159" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="H159" s="12"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="9">
         <v>3</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D160" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="10"/>
+      <c r="H160" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" s="10"/>
-      <c r="H160" s="17"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" s="9">
         <v>4</v>
       </c>
-      <c r="C161" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>166</v>
+      <c r="C161" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4332,54 +4347,54 @@
       <c r="B162" s="9">
         <v>5</v>
       </c>
-      <c r="C162" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>69</v>
+      <c r="C162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G162" s="2"/>
-      <c r="H162" s="4"/>
+      <c r="H162" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" s="9">
         <v>6</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G163" s="2"/>
-      <c r="H163" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="H163" s="4"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" s="9">
         <v>7</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
@@ -4387,241 +4402,243 @@
       <c r="G164" s="2"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B165" s="9">
-        <v>8</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" s="2"/>
-      <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B166" s="9">
+    <row r="165" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="166" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="37"/>
+    </row>
+    <row r="168" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E168" s="23"/>
+      <c r="G168" s="23"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B169" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C169" s="39"/>
+      <c r="D169" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E169" s="40"/>
+      <c r="F169" s="40"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" s="42"/>
+      <c r="D170" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="8"/>
+    </row>
+    <row r="171" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" s="2"/>
-      <c r="H166" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B167" s="9">
+      <c r="C171" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" s="2"/>
-      <c r="H167" s="4"/>
-    </row>
-    <row r="168" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="9">
+      <c r="D171" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" s="7"/>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="13" t="s">
+      <c r="E171" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F171" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C170" s="26" t="s">
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B172" s="9">
+        <v>1</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="10"/>
+      <c r="H172" s="12"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="9">
+        <v>2</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="10"/>
+      <c r="H173" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B174" s="9">
+        <v>3</v>
+      </c>
+      <c r="C174" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="27"/>
-    </row>
-    <row r="172" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E172" s="23"/>
-      <c r="G172" s="23"/>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B173" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C173" s="29"/>
-      <c r="D173" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E173" s="30"/>
-      <c r="F173" s="30"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="3"/>
-    </row>
-    <row r="174" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C174" s="32"/>
-      <c r="D174" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="8"/>
-    </row>
-    <row r="175" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F175" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H175" s="16" t="s">
+      <c r="D174" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" s="10"/>
+      <c r="H174" s="17"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B175" s="9">
+        <v>4</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E175" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="4"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" s="9">
-        <v>1</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G176" s="10"/>
-      <c r="H176" s="12"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="9">
-        <v>2</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>175</v>
+        <v>6</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G177" s="10"/>
-      <c r="H177" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="4"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="9">
-        <v>3</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D178" s="18" t="s">
-        <v>83</v>
+        <v>7</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G178" s="10"/>
-      <c r="H178" s="17"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="4"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="4"/>
+      <c r="H179" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="9">
-        <v>5</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>16</v>
@@ -4629,290 +4646,290 @@
       <c r="G180" s="2"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B181" s="9">
-        <v>6</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" s="7"/>
+      <c r="H181" s="8"/>
+    </row>
+    <row r="182" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E182" s="23"/>
+      <c r="G182" s="23"/>
+    </row>
+    <row r="183" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="36"/>
+      <c r="G183" s="36"/>
+      <c r="H183" s="37"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E184" s="23"/>
+      <c r="G184" s="23"/>
+    </row>
+    <row r="185" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E185" s="23"/>
+      <c r="G185" s="23"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B186" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186" s="27"/>
+      <c r="D186" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E186" s="29"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C187" s="32"/>
+      <c r="D187" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E187" s="34"/>
+      <c r="F187" s="35"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="8"/>
+    </row>
+    <row r="188" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B189" s="9">
+        <v>1</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" s="12"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B190" s="9">
+        <v>2</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" s="10"/>
+      <c r="H190" s="12"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B191" s="9">
         <v>3</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="C191" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" s="10"/>
+      <c r="H191" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B192" s="9">
+        <v>4</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="2"/>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B193" s="9">
+        <v>5</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" s="2"/>
-      <c r="H181" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B182" s="9">
-        <v>7</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" s="2"/>
-      <c r="H182" s="4"/>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B183" s="9">
-        <v>8</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="4"/>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B184" s="9">
-        <v>9</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" s="2"/>
-      <c r="H184" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B185" s="9">
-        <v>10</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" s="2"/>
-      <c r="H185" s="4"/>
-    </row>
-    <row r="186" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="9">
-        <v>11</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="8"/>
-    </row>
-    <row r="187" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E187" s="23"/>
-      <c r="G187" s="23"/>
-    </row>
-    <row r="188" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="26"/>
-      <c r="G188" s="26"/>
-      <c r="H188" s="27"/>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E189" s="23"/>
-      <c r="G189" s="23"/>
-    </row>
-    <row r="190" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E190" s="23"/>
-      <c r="G190" s="23"/>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B191" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C191" s="41"/>
-      <c r="D191" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="E191" s="46"/>
-      <c r="F191" s="47"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="3"/>
-    </row>
-    <row r="192" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C192" s="39"/>
-      <c r="D192" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E192" s="43"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="8"/>
-    </row>
-    <row r="193" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D193" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F193" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="F193" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="2"/>
+      <c r="H193" s="4"/>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B194" s="9">
-        <v>1</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>122</v>
+        <v>6</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F194" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H194" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" s="2"/>
+      <c r="H194" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="9">
-        <v>2</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>88</v>
+        <v>7</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G195" s="10"/>
-      <c r="H195" s="12"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="4"/>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="9">
-        <v>3</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>124</v>
+        <v>8</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G196" s="10"/>
-      <c r="H196" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="G196" s="2"/>
+      <c r="H196" s="4"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B197" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G197" s="2"/>
-      <c r="H197" s="4"/>
+      <c r="H197" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B198" s="9">
-        <v>5</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>16</v>
@@ -4920,170 +4937,51 @@
       <c r="G198" s="2"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B199" s="9">
-        <v>6</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" s="2"/>
-      <c r="H199" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B200" s="9">
-        <v>7</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" s="2"/>
-      <c r="H200" s="4"/>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B201" s="9">
+        <v>11</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" s="2"/>
-      <c r="H201" s="4"/>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B202" s="9">
-        <v>9</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" s="2"/>
-      <c r="H202" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B203" s="9">
-        <v>10</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" s="2"/>
-      <c r="H203" s="4"/>
-    </row>
-    <row r="204" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="9">
-        <v>11</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G204" s="7"/>
-      <c r="H204" s="8"/>
-    </row>
-    <row r="205" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="206" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="13" t="s">
+      <c r="E199" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G199" s="7"/>
+      <c r="H199" s="8"/>
+    </row>
+    <row r="200" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="201" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B201" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C206" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="26"/>
-      <c r="G206" s="26"/>
-      <c r="H206" s="27"/>
+      <c r="C201" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D201" s="36"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="36"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="C206:H206"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="C82:H82"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -5094,16 +4992,36 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C188:H188"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="C60:H60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00. 설계/Table 설계.xlsx
+++ b/00. 설계/Table 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10B9F86-A530-4E1E-969A-E2198025B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A5BB9-EBE0-4C87-872D-8485CA4856E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="13155" windowWidth="16080" windowHeight="14370" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
+    <workbookView xWindow="28920" yWindow="11565" windowWidth="16080" windowHeight="14370" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="185">
   <si>
     <t>지시수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +368,6 @@
   </si>
   <si>
     <t>공정 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 : 사내공정, 20 : 외주공정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -540,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sales_OrderOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수주품 출고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,10 +692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CI + 16진수 순서(2자리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemCode</t>
   </si>
   <si>
@@ -728,10 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CU + 16진수 3자리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -760,11 +744,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MC + 16진수 6자리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단가 관리는 Table 신규 생성해서 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI + 16진수 순서(2자리) = 4자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU + 16진수 3자리 = 5자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC + 16진수 6자리 = 8자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 : 사내공정, 02 : 외주공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR + 16진수 2자리 = 4자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO + YYYYMMDD + 16진수 3자리 = 13자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales_OrderDeliver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1637,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D18479-4FC6-49A3-AAC7-5696D0E9C401}">
   <dimension ref="B1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125:H125"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1666,7 @@
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
@@ -1671,7 +1679,7 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -1706,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>17</v>
@@ -1720,7 +1728,9 @@
       <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
@@ -1733,16 +1743,16 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1756,13 +1766,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
@@ -1779,14 +1789,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1800,14 +1810,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1821,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -1840,14 +1850,14 @@
         <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1861,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1882,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1901,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -1920,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -1941,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -1960,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1974,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -1994,7 +2004,7 @@
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="30"/>
@@ -2007,7 +2017,7 @@
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="35"/>
@@ -2042,20 +2052,20 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2063,10 +2073,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
@@ -2088,13 +2098,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2109,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -2122,20 +2132,20 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2149,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -2168,14 +2178,14 @@
         <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -2189,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -2210,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -2229,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -2248,7 +2258,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -2269,7 +2279,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -2288,7 +2298,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>16</v>
@@ -2304,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
@@ -2319,7 +2329,7 @@
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="28" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="30"/>
@@ -2332,7 +2342,7 @@
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="35"/>
@@ -2370,10 +2380,10 @@
         <v>22</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>17</v>
@@ -2388,20 +2398,20 @@
         <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
@@ -2409,10 +2419,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>48</v>
@@ -2434,13 +2444,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -2455,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -2471,10 +2481,10 @@
         <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -2495,7 +2505,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
@@ -2514,14 +2524,14 @@
         <v>44</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -2535,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>16</v>
@@ -2556,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>16</v>
@@ -2575,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>16</v>
@@ -2594,7 +2604,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>16</v>
@@ -2615,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>16</v>
@@ -2634,7 +2644,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>16</v>
@@ -2651,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
@@ -2673,7 +2683,7 @@
       </c>
       <c r="C63" s="39"/>
       <c r="D63" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E63" s="40"/>
       <c r="F63" s="40"/>
@@ -2686,7 +2696,7 @@
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="43"/>
       <c r="F64" s="43"/>
@@ -2727,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>17</v>
@@ -2742,20 +2752,20 @@
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
@@ -2763,10 +2773,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>48</v>
@@ -2776,7 +2786,7 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -2790,13 +2800,13 @@
         <v>40</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -2811,14 +2821,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
@@ -2829,10 +2839,10 @@
         <v>56</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -2847,20 +2857,20 @@
         <v>7</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
@@ -2874,7 +2884,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -2890,17 +2900,17 @@
         <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -2914,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -2935,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -2954,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>16</v>
@@ -2973,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>16</v>
@@ -2994,7 +3004,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
@@ -3013,7 +3023,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>16</v>
@@ -3030,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
@@ -3050,7 +3060,7 @@
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E85" s="40"/>
       <c r="F85" s="40"/>
@@ -3063,7 +3073,7 @@
       </c>
       <c r="C86" s="42"/>
       <c r="D86" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
@@ -3098,22 +3108,22 @@
         <v>1</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
@@ -3146,16 +3156,16 @@
         <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
@@ -3169,13 +3179,13 @@
         <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -3190,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>16</v>
@@ -3203,20 +3213,20 @@
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
@@ -3230,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>16</v>
@@ -3249,14 +3259,14 @@
         <v>44</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
@@ -3270,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -3291,7 +3301,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
@@ -3310,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -3329,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -3350,7 +3360,7 @@
         <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>16</v>
@@ -3369,7 +3379,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>16</v>
@@ -3386,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D103" s="36"/>
       <c r="E103" s="36"/>
@@ -3405,7 +3415,7 @@
       </c>
       <c r="C106" s="39"/>
       <c r="D106" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E106" s="40"/>
       <c r="F106" s="40"/>
@@ -3418,7 +3428,7 @@
       </c>
       <c r="C107" s="42"/>
       <c r="D107" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E107" s="43"/>
       <c r="F107" s="43"/>
@@ -3453,13 +3463,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>17</v>
@@ -3468,7 +3478,7 @@
         <v>18</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
@@ -3476,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>16</v>
@@ -3495,20 +3505,20 @@
         <v>3</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
@@ -3516,13 +3526,13 @@
         <v>4</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>16</v>
@@ -3535,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>16</v>
@@ -3557,10 +3567,10 @@
         <v>50</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>16</v>
@@ -3579,14 +3589,14 @@
         <v>51</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
@@ -3600,7 +3610,7 @@
         <v>69</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3619,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3638,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>16</v>
@@ -3659,7 +3669,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3678,7 +3688,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3697,7 +3707,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3718,7 +3728,7 @@
         <v>7</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3737,7 +3747,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>16</v>
@@ -3751,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D125" s="36"/>
       <c r="E125" s="36"/>
@@ -3766,7 +3776,7 @@
       </c>
       <c r="C128" s="39"/>
       <c r="D128" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E128" s="40"/>
       <c r="F128" s="40"/>
@@ -3820,7 +3830,7 @@
         <v>51</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>17</v>
@@ -3829,7 +3839,7 @@
         <v>18</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
@@ -3843,7 +3853,7 @@
         <v>57</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>16</v>
@@ -3862,14 +3872,14 @@
         <v>58</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
@@ -3883,7 +3893,7 @@
         <v>60</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>16</v>
@@ -3902,7 +3912,7 @@
         <v>61</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>16</v>
@@ -3921,7 +3931,7 @@
         <v>62</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>16</v>
@@ -3940,7 +3950,7 @@
         <v>63</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>16</v>
@@ -3953,13 +3963,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>16</v>
@@ -3978,7 +3988,7 @@
         <v>65</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3997,7 +4007,7 @@
         <v>66</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>16</v>
@@ -4016,7 +4026,7 @@
         <v>67</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -4029,13 +4039,13 @@
         <v>12</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -4054,7 +4064,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -4073,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -4092,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -4113,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>16</v>
@@ -4132,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>16</v>
@@ -4151,7 +4161,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>16</v>
@@ -4172,7 +4182,7 @@
         <v>7</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>16</v>
@@ -4191,7 +4201,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>16</v>
@@ -4218,7 +4228,7 @@
       </c>
       <c r="C155" s="39"/>
       <c r="D155" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E155" s="40"/>
       <c r="F155" s="40"/>
@@ -4231,7 +4241,7 @@
       </c>
       <c r="C156" s="42"/>
       <c r="D156" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E156" s="43"/>
       <c r="F156" s="43"/>
@@ -4266,13 +4276,13 @@
         <v>1</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>17</v>
@@ -4281,7 +4291,7 @@
         <v>18</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
@@ -4289,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>16</v>
@@ -4314,14 +4324,14 @@
         <v>80</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.3">
@@ -4329,13 +4339,13 @@
         <v>4</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4354,7 +4364,7 @@
         <v>3</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -4375,7 +4385,7 @@
         <v>4</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
@@ -4394,7 +4404,7 @@
         <v>5</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
@@ -4408,7 +4418,7 @@
         <v>12</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D166" s="36"/>
       <c r="E166" s="36"/>
@@ -4426,7 +4436,7 @@
       </c>
       <c r="C169" s="39"/>
       <c r="D169" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E169" s="40"/>
       <c r="F169" s="40"/>
@@ -4439,7 +4449,7 @@
       </c>
       <c r="C170" s="42"/>
       <c r="D170" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E170" s="43"/>
       <c r="F170" s="43"/>
@@ -4474,13 +4484,13 @@
         <v>1</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>16</v>
@@ -4493,20 +4503,20 @@
         <v>2</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G173" s="10"/>
       <c r="H173" s="12" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.3">
@@ -4514,13 +4524,13 @@
         <v>3</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D174" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>16</v>
@@ -4539,7 +4549,7 @@
         <v>12</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>16</v>
@@ -4558,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>16</v>
@@ -4579,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>16</v>
@@ -4598,7 +4608,7 @@
         <v>5</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>16</v>
@@ -4617,7 +4627,7 @@
         <v>6</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>16</v>
@@ -4638,7 +4648,7 @@
         <v>7</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>16</v>
@@ -4657,7 +4667,7 @@
         <v>8</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>16</v>
@@ -4674,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="C183" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D183" s="36"/>
       <c r="E183" s="36"/>
@@ -4696,7 +4706,7 @@
       </c>
       <c r="C186" s="27"/>
       <c r="D186" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E186" s="29"/>
       <c r="F186" s="30"/>
@@ -4744,13 +4754,13 @@
         <v>1</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>17</v>
@@ -4758,20 +4768,22 @@
       <c r="G189" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H189" s="12"/>
+      <c r="H189" s="12" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B190" s="9">
         <v>2</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>16</v>
@@ -4784,20 +4796,20 @@
         <v>3</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G191" s="10"/>
       <c r="H191" s="17" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.3">
@@ -4811,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>16</v>
@@ -4830,7 +4842,7 @@
         <v>69</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>16</v>
@@ -4849,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>16</v>
@@ -4870,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>16</v>
@@ -4889,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>16</v>
@@ -4908,7 +4920,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>16</v>
@@ -4929,7 +4941,7 @@
         <v>7</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>16</v>
@@ -4948,7 +4960,7 @@
         <v>8</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>16</v>
@@ -4962,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="C201" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D201" s="36"/>
       <c r="E201" s="36"/>
